--- a/data/9814.xlsx
+++ b/data/9814.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1199"/>
+  <dimension ref="A1:I1200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43337,6 +43337,41 @@
         </is>
       </c>
     </row>
+    <row r="1200">
+      <c r="A1200" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1200" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1200" t="inlineStr">
+        <is>
+          <t>9814</t>
+        </is>
+      </c>
+      <c r="D1200" t="inlineStr">
+        <is>
+          <t>BERTAM</t>
+        </is>
+      </c>
+      <c r="E1200" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F1200" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G1200" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H1200" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I1200" t="n">
+        <v>2000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9814.xlsx
+++ b/data/9814.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1200"/>
+  <dimension ref="A1:I1201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43372,6 +43372,41 @@
         <v>2000</v>
       </c>
     </row>
+    <row r="1201">
+      <c r="A1201" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1201" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1201" t="inlineStr">
+        <is>
+          <t>9814</t>
+        </is>
+      </c>
+      <c r="D1201" t="inlineStr">
+        <is>
+          <t>BERTAM</t>
+        </is>
+      </c>
+      <c r="E1201" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F1201" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G1201" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H1201" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I1201" t="n">
+        <v>174900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9814.xlsx
+++ b/data/9814.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1201"/>
+  <dimension ref="A1:I1202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43407,6 +43407,43 @@
         <v>174900</v>
       </c>
     </row>
+    <row r="1202">
+      <c r="A1202" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1202" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1202" t="inlineStr">
+        <is>
+          <t>9814</t>
+        </is>
+      </c>
+      <c r="D1202" t="inlineStr">
+        <is>
+          <t>BERTAM</t>
+        </is>
+      </c>
+      <c r="E1202" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F1202" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G1202" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H1202" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I1202" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9814.xlsx
+++ b/data/9814.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1202"/>
+  <dimension ref="A1:I1203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43444,6 +43444,43 @@
         </is>
       </c>
     </row>
+    <row r="1203">
+      <c r="A1203" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1203" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1203" t="inlineStr">
+        <is>
+          <t>9814</t>
+        </is>
+      </c>
+      <c r="D1203" t="inlineStr">
+        <is>
+          <t>BERTAM</t>
+        </is>
+      </c>
+      <c r="E1203" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F1203" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G1203" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H1203" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I1203" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9814.xlsx
+++ b/data/9814.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1203"/>
+  <dimension ref="A1:I1204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43481,6 +43481,41 @@
         </is>
       </c>
     </row>
+    <row r="1204">
+      <c r="A1204" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1204" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1204" t="inlineStr">
+        <is>
+          <t>9814</t>
+        </is>
+      </c>
+      <c r="D1204" t="inlineStr">
+        <is>
+          <t>BERTAM</t>
+        </is>
+      </c>
+      <c r="E1204" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F1204" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G1204" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H1204" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I1204" t="n">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9814.xlsx
+++ b/data/9814.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1204"/>
+  <dimension ref="A1:I1205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43516,6 +43516,43 @@
         <v>100</v>
       </c>
     </row>
+    <row r="1205">
+      <c r="A1205" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1205" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1205" t="inlineStr">
+        <is>
+          <t>9814</t>
+        </is>
+      </c>
+      <c r="D1205" t="inlineStr">
+        <is>
+          <t>BERTAM</t>
+        </is>
+      </c>
+      <c r="E1205" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F1205" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G1205" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H1205" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I1205" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9814.xlsx
+++ b/data/9814.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1205"/>
+  <dimension ref="A1:I1206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43553,6 +43553,43 @@
         </is>
       </c>
     </row>
+    <row r="1206">
+      <c r="A1206" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1206" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1206" t="inlineStr">
+        <is>
+          <t>9814</t>
+        </is>
+      </c>
+      <c r="D1206" t="inlineStr">
+        <is>
+          <t>BERTAM</t>
+        </is>
+      </c>
+      <c r="E1206" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F1206" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G1206" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H1206" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I1206" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9814.xlsx
+++ b/data/9814.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1206"/>
+  <dimension ref="A1:I1207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43590,6 +43590,43 @@
         </is>
       </c>
     </row>
+    <row r="1207">
+      <c r="A1207" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1207" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1207" t="inlineStr">
+        <is>
+          <t>9814</t>
+        </is>
+      </c>
+      <c r="D1207" t="inlineStr">
+        <is>
+          <t>BERTAM</t>
+        </is>
+      </c>
+      <c r="E1207" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F1207" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G1207" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H1207" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I1207" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9814.xlsx
+++ b/data/9814.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1207"/>
+  <dimension ref="A1:I1208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43627,6 +43627,43 @@
         </is>
       </c>
     </row>
+    <row r="1208">
+      <c r="A1208" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1208" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1208" t="inlineStr">
+        <is>
+          <t>9814</t>
+        </is>
+      </c>
+      <c r="D1208" t="inlineStr">
+        <is>
+          <t>BERTAM</t>
+        </is>
+      </c>
+      <c r="E1208" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F1208" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G1208" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H1208" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I1208" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9814.xlsx
+++ b/data/9814.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1208"/>
+  <dimension ref="A1:I1209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43664,6 +43664,41 @@
         </is>
       </c>
     </row>
+    <row r="1209">
+      <c r="A1209" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1209" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1209" t="inlineStr">
+        <is>
+          <t>9814</t>
+        </is>
+      </c>
+      <c r="D1209" t="inlineStr">
+        <is>
+          <t>BERTAM</t>
+        </is>
+      </c>
+      <c r="E1209" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F1209" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G1209" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H1209" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I1209" t="n">
+        <v>5000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9814.xlsx
+++ b/data/9814.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1209"/>
+  <dimension ref="A1:I1210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43699,6 +43699,43 @@
         <v>5000</v>
       </c>
     </row>
+    <row r="1210">
+      <c r="A1210" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1210" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1210" t="inlineStr">
+        <is>
+          <t>9814</t>
+        </is>
+      </c>
+      <c r="D1210" t="inlineStr">
+        <is>
+          <t>BERTAM</t>
+        </is>
+      </c>
+      <c r="E1210" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F1210" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G1210" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H1210" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I1210" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9814.xlsx
+++ b/data/9814.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1210"/>
+  <dimension ref="A1:I1211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43736,6 +43736,41 @@
         </is>
       </c>
     </row>
+    <row r="1211">
+      <c r="A1211" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1211" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1211" t="inlineStr">
+        <is>
+          <t>9814</t>
+        </is>
+      </c>
+      <c r="D1211" t="inlineStr">
+        <is>
+          <t>BERTAM</t>
+        </is>
+      </c>
+      <c r="E1211" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F1211" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G1211" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H1211" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I1211" t="n">
+        <v>35000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9814.xlsx
+++ b/data/9814.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1211"/>
+  <dimension ref="A1:I1213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43771,6 +43771,80 @@
         <v>35000</v>
       </c>
     </row>
+    <row r="1212">
+      <c r="A1212" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1212" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1212" t="inlineStr">
+        <is>
+          <t>9814</t>
+        </is>
+      </c>
+      <c r="D1212" t="inlineStr">
+        <is>
+          <t>BERTAM</t>
+        </is>
+      </c>
+      <c r="E1212" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F1212" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G1212" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H1212" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I1212" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1213">
+      <c r="A1213" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1213" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1213" t="inlineStr">
+        <is>
+          <t>9814</t>
+        </is>
+      </c>
+      <c r="D1213" t="inlineStr">
+        <is>
+          <t>BERTAM</t>
+        </is>
+      </c>
+      <c r="E1213" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F1213" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G1213" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H1213" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I1213" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9814.xlsx
+++ b/data/9814.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1213"/>
+  <dimension ref="A1:I1214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43845,6 +43845,43 @@
         </is>
       </c>
     </row>
+    <row r="1214">
+      <c r="A1214" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1214" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1214" t="inlineStr">
+        <is>
+          <t>9814</t>
+        </is>
+      </c>
+      <c r="D1214" t="inlineStr">
+        <is>
+          <t>BERTAM</t>
+        </is>
+      </c>
+      <c r="E1214" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F1214" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G1214" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H1214" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I1214" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9814.xlsx
+++ b/data/9814.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1214"/>
+  <dimension ref="A1:I1215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43882,6 +43882,43 @@
         </is>
       </c>
     </row>
+    <row r="1215">
+      <c r="A1215" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1215" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1215" t="inlineStr">
+        <is>
+          <t>9814</t>
+        </is>
+      </c>
+      <c r="D1215" t="inlineStr">
+        <is>
+          <t>BERTAM</t>
+        </is>
+      </c>
+      <c r="E1215" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F1215" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G1215" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H1215" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I1215" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9814.xlsx
+++ b/data/9814.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2631"/>
+  <dimension ref="A1:I2632"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93479,6 +93479,43 @@
         </is>
       </c>
     </row>
+    <row r="2632">
+      <c r="A2632" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2632" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2632" t="inlineStr">
+        <is>
+          <t>9814</t>
+        </is>
+      </c>
+      <c r="D2632" t="inlineStr">
+        <is>
+          <t>BERTAM</t>
+        </is>
+      </c>
+      <c r="E2632" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F2632" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G2632" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H2632" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I2632" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9814.xlsx
+++ b/data/9814.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2632"/>
+  <dimension ref="A1:I2633"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93516,6 +93516,43 @@
         </is>
       </c>
     </row>
+    <row r="2633">
+      <c r="A2633" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2633" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2633" t="inlineStr">
+        <is>
+          <t>9814</t>
+        </is>
+      </c>
+      <c r="D2633" t="inlineStr">
+        <is>
+          <t>BERTAM</t>
+        </is>
+      </c>
+      <c r="E2633" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F2633" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G2633" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H2633" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I2633" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9814.xlsx
+++ b/data/9814.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2633"/>
+  <dimension ref="A1:I2634"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93553,6 +93553,43 @@
         </is>
       </c>
     </row>
+    <row r="2634">
+      <c r="A2634" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2634" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2634" t="inlineStr">
+        <is>
+          <t>9814</t>
+        </is>
+      </c>
+      <c r="D2634" t="inlineStr">
+        <is>
+          <t>BERTAM</t>
+        </is>
+      </c>
+      <c r="E2634" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F2634" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G2634" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H2634" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I2634" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9814.xlsx
+++ b/data/9814.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2634"/>
+  <dimension ref="A1:I2635"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93590,6 +93590,43 @@
         </is>
       </c>
     </row>
+    <row r="2635">
+      <c r="A2635" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2635" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2635" t="inlineStr">
+        <is>
+          <t>9814</t>
+        </is>
+      </c>
+      <c r="D2635" t="inlineStr">
+        <is>
+          <t>BERTAM</t>
+        </is>
+      </c>
+      <c r="E2635" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F2635" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G2635" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H2635" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I2635" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9814.xlsx
+++ b/data/9814.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2635"/>
+  <dimension ref="A1:I2636"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93627,6 +93627,43 @@
         </is>
       </c>
     </row>
+    <row r="2636">
+      <c r="A2636" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2636" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2636" t="inlineStr">
+        <is>
+          <t>9814</t>
+        </is>
+      </c>
+      <c r="D2636" t="inlineStr">
+        <is>
+          <t>BERTAM</t>
+        </is>
+      </c>
+      <c r="E2636" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F2636" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G2636" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H2636" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I2636" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9814.xlsx
+++ b/data/9814.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2636"/>
+  <dimension ref="A1:I2637"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93664,6 +93664,43 @@
         </is>
       </c>
     </row>
+    <row r="2637">
+      <c r="A2637" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2637" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2637" t="inlineStr">
+        <is>
+          <t>9814</t>
+        </is>
+      </c>
+      <c r="D2637" t="inlineStr">
+        <is>
+          <t>BERTAM</t>
+        </is>
+      </c>
+      <c r="E2637" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F2637" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G2637" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H2637" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I2637" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9814.xlsx
+++ b/data/9814.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2637"/>
+  <dimension ref="A1:I2638"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93701,6 +93701,43 @@
         </is>
       </c>
     </row>
+    <row r="2638">
+      <c r="A2638" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2638" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2638" t="inlineStr">
+        <is>
+          <t>9814</t>
+        </is>
+      </c>
+      <c r="D2638" t="inlineStr">
+        <is>
+          <t>BERTAM</t>
+        </is>
+      </c>
+      <c r="E2638" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F2638" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G2638" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H2638" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I2638" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9814.xlsx
+++ b/data/9814.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2638"/>
+  <dimension ref="A1:I2639"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93738,6 +93738,43 @@
         </is>
       </c>
     </row>
+    <row r="2639">
+      <c r="A2639" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2639" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2639" t="inlineStr">
+        <is>
+          <t>9814</t>
+        </is>
+      </c>
+      <c r="D2639" t="inlineStr">
+        <is>
+          <t>BERTAM</t>
+        </is>
+      </c>
+      <c r="E2639" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F2639" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G2639" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H2639" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I2639" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9814.xlsx
+++ b/data/9814.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2639"/>
+  <dimension ref="A1:I2640"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93775,6 +93775,43 @@
         </is>
       </c>
     </row>
+    <row r="2640">
+      <c r="A2640" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2640" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2640" t="inlineStr">
+        <is>
+          <t>9814</t>
+        </is>
+      </c>
+      <c r="D2640" t="inlineStr">
+        <is>
+          <t>BERTAM</t>
+        </is>
+      </c>
+      <c r="E2640" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F2640" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G2640" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H2640" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I2640" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9814.xlsx
+++ b/data/9814.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2640"/>
+  <dimension ref="A1:I2641"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93812,6 +93812,43 @@
         </is>
       </c>
     </row>
+    <row r="2641">
+      <c r="A2641" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2641" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2641" t="inlineStr">
+        <is>
+          <t>9814</t>
+        </is>
+      </c>
+      <c r="D2641" t="inlineStr">
+        <is>
+          <t>BERTAM</t>
+        </is>
+      </c>
+      <c r="E2641" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F2641" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G2641" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H2641" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I2641" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9814.xlsx
+++ b/data/9814.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2641"/>
+  <dimension ref="A1:I2642"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93849,6 +93849,43 @@
         </is>
       </c>
     </row>
+    <row r="2642">
+      <c r="A2642" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2642" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2642" t="inlineStr">
+        <is>
+          <t>9814</t>
+        </is>
+      </c>
+      <c r="D2642" t="inlineStr">
+        <is>
+          <t>BERTAM</t>
+        </is>
+      </c>
+      <c r="E2642" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F2642" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G2642" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H2642" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I2642" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9814.xlsx
+++ b/data/9814.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2642"/>
+  <dimension ref="A1:I2643"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93886,6 +93886,43 @@
         </is>
       </c>
     </row>
+    <row r="2643">
+      <c r="A2643" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2643" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2643" t="inlineStr">
+        <is>
+          <t>9814</t>
+        </is>
+      </c>
+      <c r="D2643" t="inlineStr">
+        <is>
+          <t>BERTAM</t>
+        </is>
+      </c>
+      <c r="E2643" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F2643" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G2643" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H2643" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I2643" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9814.xlsx
+++ b/data/9814.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2643"/>
+  <dimension ref="A1:I2644"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93923,6 +93923,43 @@
         </is>
       </c>
     </row>
+    <row r="2644">
+      <c r="A2644" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2644" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2644" t="inlineStr">
+        <is>
+          <t>9814</t>
+        </is>
+      </c>
+      <c r="D2644" t="inlineStr">
+        <is>
+          <t>BERTAM</t>
+        </is>
+      </c>
+      <c r="E2644" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F2644" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G2644" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H2644" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I2644" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9814.xlsx
+++ b/data/9814.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2644"/>
+  <dimension ref="A1:I2645"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93960,6 +93960,43 @@
         </is>
       </c>
     </row>
+    <row r="2645">
+      <c r="A2645" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2645" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2645" t="inlineStr">
+        <is>
+          <t>9814</t>
+        </is>
+      </c>
+      <c r="D2645" t="inlineStr">
+        <is>
+          <t>BERTAM</t>
+        </is>
+      </c>
+      <c r="E2645" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F2645" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G2645" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H2645" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I2645" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9814.xlsx
+++ b/data/9814.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2645"/>
+  <dimension ref="A1:I2646"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93997,6 +93997,43 @@
         </is>
       </c>
     </row>
+    <row r="2646">
+      <c r="A2646" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2646" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2646" t="inlineStr">
+        <is>
+          <t>9814</t>
+        </is>
+      </c>
+      <c r="D2646" t="inlineStr">
+        <is>
+          <t>BERTAM</t>
+        </is>
+      </c>
+      <c r="E2646" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F2646" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G2646" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H2646" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I2646" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
